--- a/solver/excel/result/2/analysis.xlsx
+++ b/solver/excel/result/2/analysis.xlsx
@@ -463,13 +463,13 @@
         <v>0.09499989456779534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02698801495272617</v>
+        <v>0.02431668757899638</v>
       </c>
       <c r="D2" t="n">
         <v>0.0972006418756189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008759248792761916</v>
+        <v>0.008616310352889024</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>0.8955146607083222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06352156582490615</v>
+        <v>0.06795316375632768</v>
       </c>
       <c r="D3" t="n">
         <v>0.8949088095456329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05004963712599103</v>
+        <v>0.06271440576074847</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>0.0007780084646388639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005997949525147926</v>
+        <v>0.005400146353070048</v>
       </c>
       <c r="D4" t="n">
         <v>0.005086879951720014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006239059177002323</v>
+        <v>0.0006454008580415859</v>
       </c>
     </row>
     <row r="5">
